--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H2">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N2">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q2">
-        <v>1454.114658830025</v>
+        <v>3448.264307967776</v>
       </c>
       <c r="R2">
-        <v>1454.114658830025</v>
+        <v>31034.37877170998</v>
       </c>
       <c r="S2">
-        <v>0.001403032978003493</v>
+        <v>0.0031064719768646</v>
       </c>
       <c r="T2">
-        <v>0.001403032978003493</v>
+        <v>0.0031064719768646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H3">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q3">
-        <v>8.353953190937526</v>
+        <v>20.02076791147912</v>
       </c>
       <c r="R3">
-        <v>8.353953190937526</v>
+        <v>180.186911203312</v>
       </c>
       <c r="S3">
-        <v>8.060486669609279E-06</v>
+        <v>1.803630723103523E-05</v>
       </c>
       <c r="T3">
-        <v>8.060486669609279E-06</v>
+        <v>1.803630723103523E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H4">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N4">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q4">
-        <v>446.8859682094521</v>
+        <v>1110.342590393771</v>
       </c>
       <c r="R4">
-        <v>446.8859682094521</v>
+        <v>9993.083313543937</v>
       </c>
       <c r="S4">
-        <v>0.0004311872843021612</v>
+        <v>0.001000285312760814</v>
       </c>
       <c r="T4">
-        <v>0.0004311872843021612</v>
+        <v>0.001000285312760814</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H5">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N5">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q5">
-        <v>13.79552317733815</v>
+        <v>63.38789189113778</v>
       </c>
       <c r="R5">
-        <v>13.79552317733815</v>
+        <v>570.49102702024</v>
       </c>
       <c r="S5">
-        <v>1.331089941847528E-05</v>
+        <v>5.710487719208283E-05</v>
       </c>
       <c r="T5">
-        <v>1.331089941847528E-05</v>
+        <v>5.710487719208283E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H6">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N6">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q6">
-        <v>777472.5839892132</v>
+        <v>815900.0098260407</v>
       </c>
       <c r="R6">
-        <v>777472.5839892132</v>
+        <v>7343100.088434367</v>
       </c>
       <c r="S6">
-        <v>0.7501607030824695</v>
+        <v>0.7350279126201579</v>
       </c>
       <c r="T6">
-        <v>0.7501607030824695</v>
+        <v>0.735027912620158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H7">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q7">
-        <v>4466.614468427792</v>
+        <v>4737.149846070715</v>
       </c>
       <c r="R7">
-        <v>4466.614468427792</v>
+        <v>42634.34861463644</v>
       </c>
       <c r="S7">
-        <v>0.004309706501600076</v>
+        <v>0.004267603041049907</v>
       </c>
       <c r="T7">
-        <v>0.004309706501600076</v>
+        <v>0.004267603041049907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H8">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N8">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q8">
-        <v>238936.8584812111</v>
+        <v>262720.1541132603</v>
       </c>
       <c r="R8">
-        <v>238936.8584812111</v>
+        <v>2364481.387019343</v>
       </c>
       <c r="S8">
-        <v>0.2305432312878426</v>
+        <v>0.236679304026836</v>
       </c>
       <c r="T8">
-        <v>0.2305432312878426</v>
+        <v>0.236679304026836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H9">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N9">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q9">
-        <v>7376.062807040254</v>
+        <v>14998.3229236019</v>
       </c>
       <c r="R9">
-        <v>7376.062807040254</v>
+        <v>134984.9063124171</v>
       </c>
       <c r="S9">
-        <v>0.007116948655499522</v>
+        <v>0.01351168753348667</v>
       </c>
       <c r="T9">
-        <v>0.007116948655499522</v>
+        <v>0.01351168753348667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H10">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N10">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q10">
-        <v>418.743990077914</v>
+        <v>457.16151317628</v>
       </c>
       <c r="R10">
-        <v>418.743990077914</v>
+        <v>4114.453618586521</v>
       </c>
       <c r="S10">
-        <v>0.0004040339074036916</v>
+        <v>0.0004118476145525217</v>
       </c>
       <c r="T10">
-        <v>0.0004040339074036916</v>
+        <v>0.0004118476145525217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H11">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q11">
-        <v>2.405702790254459</v>
+        <v>2.654299014206667</v>
       </c>
       <c r="R11">
-        <v>2.405702790254459</v>
+        <v>23.88869112786001</v>
       </c>
       <c r="S11">
-        <v>2.321192713040775E-06</v>
+        <v>2.391204608880985E-06</v>
       </c>
       <c r="T11">
-        <v>2.321192713040775E-06</v>
+        <v>2.391204608880985E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H12">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N12">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q12">
-        <v>128.6905487827367</v>
+        <v>147.20620388512</v>
       </c>
       <c r="R12">
-        <v>128.6905487827367</v>
+        <v>1324.85583496608</v>
       </c>
       <c r="S12">
-        <v>0.0001241697707970446</v>
+        <v>0.0001326151090370581</v>
       </c>
       <c r="T12">
-        <v>0.0001241697707970446</v>
+        <v>0.0001326151090370581</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H13">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N13">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O13">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P13">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q13">
-        <v>3.972721398145387</v>
+        <v>8.403794484966667</v>
       </c>
       <c r="R13">
-        <v>3.972721398145387</v>
+        <v>75.63415036470002</v>
       </c>
       <c r="S13">
-        <v>3.833163430525368E-06</v>
+        <v>7.5708094668253E-06</v>
       </c>
       <c r="T13">
-        <v>3.833163430525368E-06</v>
+        <v>7.5708094668253E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H14">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N14">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O14">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P14">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q14">
-        <v>4293.92116735532</v>
+        <v>4763.675575039875</v>
       </c>
       <c r="R14">
-        <v>4293.92116735532</v>
+        <v>42873.08017535887</v>
       </c>
       <c r="S14">
-        <v>0.004143079753830465</v>
+        <v>0.004291499536895135</v>
       </c>
       <c r="T14">
-        <v>0.004143079753830465</v>
+        <v>0.004291499536895135</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H15">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N15">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O15">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P15">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q15">
-        <v>24.66876750044182</v>
+        <v>27.65810117080689</v>
       </c>
       <c r="R15">
-        <v>24.66876750044182</v>
+        <v>248.922910537262</v>
       </c>
       <c r="S15">
-        <v>2.380217689137983E-05</v>
+        <v>2.491662719179255E-05</v>
       </c>
       <c r="T15">
-        <v>2.380217689137983E-05</v>
+        <v>2.491662719179255E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H16">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N16">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O16">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P16">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q16">
-        <v>1319.629856308977</v>
+        <v>1533.905584198837</v>
       </c>
       <c r="R16">
-        <v>1319.629856308977</v>
+        <v>13805.15025778954</v>
       </c>
       <c r="S16">
-        <v>0.001273272500154289</v>
+        <v>0.001381864696815561</v>
       </c>
       <c r="T16">
-        <v>0.001273272500154289</v>
+        <v>0.001381864696815561</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H17">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N17">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O17">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P17">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q17">
-        <v>40.73742646510075</v>
+        <v>87.56850559783223</v>
       </c>
       <c r="R17">
-        <v>40.73742646510075</v>
+        <v>788.11655038049</v>
       </c>
       <c r="S17">
-        <v>3.930635897413763E-05</v>
+        <v>7.888870585326338E-05</v>
       </c>
       <c r="T17">
-        <v>3.930635897413763E-05</v>
+        <v>7.888870585326338E-05</v>
       </c>
     </row>
   </sheetData>
